--- a/results/I3_N5_M2_T45_C200_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s3_mean_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2070000171661377</v>
+        <v>0.1299998760223389</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.92773953394841</v>
+        <v>40.92773953394843</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42.37517619638955</v>
+        <v>30.33301651610671</v>
       </c>
     </row>
     <row r="7">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152.3989999999903</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01899999999978</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>193.6310000000068</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>122.0979999999581</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>48.1200000000008</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>193.6310000000068</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>122.097999999959</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
